--- a/lab3/Excel/3lab.xlsx
+++ b/lab3/Excel/3lab.xlsx
@@ -18,11 +18,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>f'(x)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ф'(x)</t>
+  </si>
+  <si>
+    <t>метод простых итераций</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>|xn+1-xn|</t>
+  </si>
+  <si>
+    <t>xn</t>
+  </si>
+  <si>
+    <t>ф(xn)</t>
+  </si>
+  <si>
+    <t>x*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xn </t>
+  </si>
+  <si>
+    <t>f(xn)</t>
+  </si>
+  <si>
+    <t>f'(xn)</t>
+  </si>
+  <si>
+    <t>f''(x)</t>
+  </si>
+  <si>
+    <t>Метод Ньютона</t>
+  </si>
+  <si>
+    <t>Метод секущих</t>
+  </si>
+  <si>
+    <t>|xn-xn-1|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -66,6 +156,945 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.56242052311096435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45545510437402692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34807434736135434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24012530126903103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13148535175494541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2055559821550774E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.824431904460206E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.19947961391097263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.31170364317303828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.42495997362059912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.53928419602126842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92D4-4DBE-94FB-44A58DAAB2A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403897088"/>
+        <c:axId val="403895840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403897088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403895840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403895840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403897088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,16 +1360,2128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+    </row>
+    <row r="2" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B2" s="3">
+        <f>1.5-0.4*SQRT(A2^3)-0.5*LN(A2)</f>
+        <v>0.56242052311096435</v>
+      </c>
+      <c r="C2" s="2">
+        <f>-0.6*SQRT(A2^3)/A2-0.5/A2</f>
+        <v>-1.0681802561682867</v>
+      </c>
+      <c r="D2" s="2">
+        <f>1-C2/$C$15</f>
+        <v>-6.8180256168286713E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>0.3*SQRT(A2^3)/A2^2+0.5/A2^2</f>
+        <v>0.46717119650054006</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+    </row>
+    <row r="3" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>A2+0.1</f>
+        <v>1.6</v>
+      </c>
+      <c r="B3" s="3">
+        <f>1.5-0.4*SQRT(A3^3)-0.5*LN(A3)</f>
+        <v>0.45545510437402692</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C12" si="0">-0.6*SQRT(A3^3)/A3-0.5/A3</f>
+        <v>-1.0714466384404111</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D12" si="1">1-C3/$C$15</f>
+        <v>-7.1446638440411103E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E12" si="2">0.3*SQRT(A3^3)/A3^2+0.5/A3^2</f>
+        <v>0.43248332451262839</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+    </row>
+    <row r="4" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A12" si="3">A3+0.1</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B12" si="4">1.5-0.4*SQRT(A4^3)-0.5*LN(A4)</f>
+        <v>0.34807434736135434</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0764219356831415</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.6421935683141484E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40309987727704844</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+    </row>
+    <row r="5" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.24012530126903103</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0827622496777021</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.2762249677702071E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37792778540429983</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+    </row>
+    <row r="6" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13148535175494541</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0902008198622553</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.0200819862255255E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35614703015765714</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+    </row>
+    <row r="7" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2055559821550774E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0985281374238571</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.8528137423857132E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33713203435596417</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+    </row>
+    <row r="8" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="4"/>
+        <v>-8.824431904460206E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1075778428666045</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.10757784286660454</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32039835260996241</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+    </row>
+    <row r="9" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.19947961391097263</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1172165457242069</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.11721654572420692</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3055657438629395</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+    </row>
+    <row r="10" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.31170364317303828</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1273363576340123</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1273363576340123</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2923321004308343</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+    </row>
+    <row r="11" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.42495997362059912</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1378493364231135</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.13784933642311348</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.28045472286592632</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+    </row>
+    <row r="12" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.53928419602126842</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1486832980505139</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.14868329805051395</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26973665961010268</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+    </row>
+    <row r="13" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+    </row>
+    <row r="14" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <f>C12/2</f>
+        <v>-0.57434164902525697</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+    </row>
+    <row r="15" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+    </row>
+    <row r="16" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+    </row>
+    <row r="17" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+    </row>
+    <row r="18" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+    </row>
+    <row r="19" spans="1:46" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+    </row>
+    <row r="20" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+    </row>
+    <row r="21" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="R21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="1">
+        <f>B22-(1.5-0.4*SQRT(B22^3)-0.5*LN(B22))/$C$15</f>
+        <v>1.9607158039787327</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <f>1.5-0.4*SQRT(J22^3)-0.5*LN(J22)</f>
+        <v>2.2055559821551107E-2</v>
+      </c>
+      <c r="L22" s="4">
+        <f>-0.6*SQRT(J22^3)/J22-0.5/J22</f>
+        <v>-1.0985281374238571</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="T22" s="6">
+        <f>1.5-0.4*SQRT(S22^3)-0.5*LN(S22)</f>
+        <v>0.56242052311096435</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>C22</f>
+        <v>1.9607158039787327</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23-(1.5-0.4*SQRT(B23^3)-0.5*LN(B23))/$C$15</f>
+        <v>2.0258596674013285</v>
+      </c>
+      <c r="D23" s="1">
+        <f>ABS(B23-B22)</f>
+        <v>0.53928419602126731</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <f>J22-K22/L22</f>
+        <v>2.0200773735967048</v>
+      </c>
+      <c r="K23" s="4">
+        <f>1.5-0.4*SQRT(J23^3)-0.5*LN(J23)</f>
+        <v>-1.765758463861955E-5</v>
+      </c>
+      <c r="L23" s="4">
+        <f>-0.6*SQRT(J23^3)/J23-0.5/J23</f>
+        <v>-1.1002918277280225</v>
+      </c>
+      <c r="M23" s="4">
+        <f>ABS(J23-J22)</f>
+        <v>2.0077373596704806E-2</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="R23" s="5">
+        <v>1</v>
+      </c>
+      <c r="S23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="T23" s="6">
+        <f>1.5-0.4*SQRT(S23^3)-0.5*LN(S23)</f>
+        <v>-0.53928419602126731</v>
+      </c>
+      <c r="U23" s="6">
+        <f>ABS(S23-S22)</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:B26" si="5">C23</f>
+        <v>2.0258596674013285</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C26" si="6">B24-(1.5-0.4*SQRT(B24^3)-0.5*LN(B24))/$C$15</f>
+        <v>2.0194783166880375</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D26" si="7">ABS(B24-B23)</f>
+        <v>6.5143863422595816E-2</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" ref="J24:J30" si="8">J23-K23/L23</f>
+        <v>2.020061325504559</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" ref="K24:K30" si="9">1.5-0.4*SQRT(J24^3)-0.5*LN(J24)</f>
+        <v>-1.1402212507505283E-11</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" ref="L24:L30" si="10">-0.6*SQRT(J24^3)/J24-0.5/J24</f>
+        <v>-1.100290406716848</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" ref="M24:M30" si="11">ABS(J24-J23)</f>
+        <v>1.6048092145837245E-5</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="R24" s="5">
+        <v>2</v>
+      </c>
+      <c r="S24" s="6">
+        <f>S23-(T23*(S22-S23))/(T22-T23)</f>
+        <v>2.0105002396231546</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" ref="T24:T27" si="12">1.5-0.4*SQRT(S24^3)-0.5*LN(S24)</f>
+        <v>1.0515933961596058E-2</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" ref="U24:U27" si="13">ABS(S24-S23)</f>
+        <v>0.48949976037684539</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0194783166880375</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0201197806383222</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3813507132910452E-3</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="8"/>
+        <v>2.0200613254941961</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="10"/>
+        <v>-1.1002904067159305</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="11"/>
+        <v>1.0362821711851211E-11</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="R25" s="5">
+        <v>3</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" ref="S25:S27" si="14">S24-(T24*(S23-S24))/(T23-T24)</f>
+        <v>2.0198628186289116</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="12"/>
+        <v>2.1841345504358678E-4</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="13"/>
+        <v>9.362579005756988E-3</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0201197806383222</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0200554628527327</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>6.4146395028474856E-4</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="R26" s="5">
+        <v>4</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="14"/>
+        <v>2.0200614016982499</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="12"/>
+        <v>-8.3846589726821463E-8</v>
+      </c>
+      <c r="U26" s="6">
+        <f t="shared" si="13"/>
+        <v>1.9858306933828729E-4</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="R27" s="5">
+        <v>5</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="14"/>
+        <v>2.0200613254935873</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="12"/>
+        <v>6.6979755075635694E-13</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="13"/>
+        <v>7.6204662580181548E-8</v>
+      </c>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="R29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="5">
+        <v>2.0200610000000001</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:46" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="4">
+        <f>J25</f>
+        <v>2.0200613254941961</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>